--- a/data/trans_dic/iP30B4_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30B4_2023-Edad-trans_dic.xlsx
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>99,5%</t>
+          <t>98,19%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>95,99%</t>
+          <t>98,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>97,87%</t>
+          <t>98,52%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>98,41; 99,9</t>
+          <t>95,57; 99,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>93,81; 97,68</t>
+          <t>97,31; 99,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>96,69; 98,67</t>
+          <t>97,15; 99,4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>98,19%</t>
+          <t>99,5%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>98,86%</t>
+          <t>95,99%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>98,52%</t>
+          <t>97,87%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>95,57; 99,52</t>
+          <t>98,41; 99,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>97,31; 99,69</t>
+          <t>93,81; 97,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>97,15; 99,4</t>
+          <t>96,69; 98,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP30B4_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30B4_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -561,12 +561,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>97,27%</t>
+          <t>99,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>98,24%</t>
+          <t>99,06%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>97,17; 100,0</t>
+          <t>94,94; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>92,96; 99,31</t>
+          <t>93,9; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>96,2; 99,27</t>
+          <t>96,58; 100,0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>98,19%</t>
+          <t>97,58%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>98,86%</t>
+          <t>98,11%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>98,52%</t>
+          <t>97,83%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>95,57; 99,52</t>
+          <t>94,56; 99,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>97,31; 99,69</t>
+          <t>95,7; 99,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>97,15; 99,4</t>
+          <t>96,0; 98,94</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>99,5%</t>
+          <t>99,52%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>95,99%</t>
+          <t>98,97%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>97,87%</t>
+          <t>99,26%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>98,41; 99,9</t>
+          <t>97,09; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>93,81; 97,68</t>
+          <t>96,96; 99,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>96,69; 98,67</t>
+          <t>98,21; 99,81</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>99,07%</t>
+          <t>99,65%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>97,07%</t>
+          <t>94,78%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>98,12%</t>
+          <t>97,35%</t>
         </is>
       </c>
     </row>
@@ -729,23 +729,81 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>98,23; 99,58</t>
+          <t>98,69; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>95,81; 98,01</t>
+          <t>91,8; 96,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>97,39; 98,69</t>
+          <t>95,91; 98,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>99,07%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>97,07%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>98,12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>98,23; 99,54</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>95,8; 98,06</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>97,43; 98,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_dic/iP30B4_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30B4_2023-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>94,94; 100,0</t>
+          <t>95,35; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>93,9; 100,0</t>
+          <t>94,93; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>96,58; 100,0</t>
+          <t>96,7; 100,0</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>94,56; 99,04</t>
+          <t>94,55; 99,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>95,7; 99,27</t>
+          <t>95,56; 99,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>96,0; 98,94</t>
+          <t>96,22; 98,92</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>97,09; 100,0</t>
+          <t>97,57; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>96,96; 99,73</t>
+          <t>96,94; 99,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>98,21; 99,81</t>
+          <t>98,26; 99,84</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>98,69; 100,0</t>
+          <t>98,66; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>91,8; 96,76</t>
+          <t>92,08; 96,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>95,91; 98,33</t>
+          <t>95,93; 98,33</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>98,23; 99,54</t>
+          <t>98,25; 99,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>95,8; 98,06</t>
+          <t>95,76; 98,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>97,43; 98,72</t>
+          <t>97,41; 98,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP30B4_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30B4_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>99,12%</t>
+          <t>99,01%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>99,0%</t>
+          <t>99,14%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>99,06%</t>
+          <t>99,07%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>95,35; 100,0</t>
+          <t>94,85; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>94,93; 100,0</t>
+          <t>95,39; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>96,7; 100,0</t>
+          <t>96,8; 100,0</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>97,58%</t>
+          <t>98,14%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>98,11%</t>
+          <t>97,64%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>97,83%</t>
+          <t>97,88%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>94,55; 99,26</t>
+          <t>95,58; 99,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>95,56; 99,33</t>
+          <t>94,57; 99,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>96,22; 98,92</t>
+          <t>95,96; 98,92</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>99,52%</t>
+          <t>98,99%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>98,97%</t>
+          <t>99,5%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>99,26%</t>
+          <t>99,27%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>97,57; 100,0</t>
+          <t>97,1; 99,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>96,94; 99,73</t>
+          <t>97,49; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>98,26; 99,84</t>
+          <t>98,06; 99,81</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>99,65%</t>
+          <t>95,16%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>94,78%</t>
+          <t>99,67%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>97,35%</t>
+          <t>97,53%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>98,66; 100,0</t>
+          <t>92,25; 97,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>92,08; 96,86</t>
+          <t>98,86; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>95,93; 98,33</t>
+          <t>96,12; 98,49</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>99,07%</t>
+          <t>97,18%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>97,07%</t>
+          <t>99,1%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>98,12%</t>
+          <t>98,2%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>98,25; 99,59</t>
+          <t>95,92; 98,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>95,76; 98,07</t>
+          <t>98,28; 99,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>97,41; 98,69</t>
+          <t>97,48; 98,74</t>
         </is>
       </c>
     </row>
